--- a/medicine/Enfance/Ingrid_Thobois/Ingrid_Thobois.xlsx
+++ b/medicine/Enfance/Ingrid_Thobois/Ingrid_Thobois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingrid Thobois est une romancière française née en 1980 à Rouen.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingrid Thobois a enseigné le français en Afghanistan[1], une expérience qui lui a inspiré son roman Le roi d'Afghanistan ne nous a pas mariés[2]. Elle a aussi été reporter en Iran et à Haïti[3]. Elle a participé à des missions de développement et d'observation électorale dans plusieurs pays (Moldavie, Azerbaïdjan, Indonésie, etc.). Elle est aussi l'auteur de plusieurs romans.
-En 2017, à l'occasion du Festival « concordan(s)e » à la Maison de la Poésie à Paris, elle crée une pièce avec le chorégraphe Gilles Vevièpe, L'Architecture du hasard[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingrid Thobois a enseigné le français en Afghanistan, une expérience qui lui a inspiré son roman Le roi d'Afghanistan ne nous a pas mariés. Elle a aussi été reporter en Iran et à Haïti. Elle a participé à des missions de développement et d'observation électorale dans plusieurs pays (Moldavie, Azerbaïdjan, Indonésie, etc.). Elle est aussi l'auteur de plusieurs romans.
+En 2017, à l'occasion du Festival « concordan(s)e » à la Maison de la Poésie à Paris, elle crée une pièce avec le chorégraphe Gilles Vevièpe, L'Architecture du hasard.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le roi d'Afghanistan ne nous a pas mariés : roman, Paris, Éditions Phébus, 2007, 160 p. (ISBN 978-2-7529-0257-3)Prix du premier roman en 2007.
 Le Simulacre du printemps, photographies de Frédéric Lecloux, éd. Le Bec en l'air, 2008.
@@ -555,11 +571,11 @@
 Livres jeunesse
 Nassim et Nassima  (ill. Judith Gueyfier), Voisins-le-Bretonneux, Rue du monde, 2009
 Tao et Léo  (ill. Judith Gueyfier), Voisins-le-Bretonneux, Éditions Rue du Monde, 2011, 111 p. (ISBN 978-2-35504-155-6)
-Brunhilde d'en face, Paris, éditions Thierry Magnier, coll. « Petite Poche », 2012[5]
-Recto verso, photographies de Teobaldi, éd. Thierry Magnier, coll. « Photoroman », 2012[6]
-Les sorciers meurent aussi, éd. Livres du Monde, 2013[7], autour de l’œuvre et des voyages de Nicolas Bouvier.
-Des fourmis dans les jambes : Petite biographie de Nicolas Bouvier  (ill. Géraldine Alibeu), Genève, La Joie de lire, 2015, 44 p. (ISBN 978-2-88908-275-9)[3]
-Amir et Marlène : Coup de foudre en 6e  (ill. Gaël Henry), Paris, Sarbacane, coll. « Pepix », 2018, 237 p. (ISBN 978-2-37731-072-2)[8]</t>
+Brunhilde d'en face, Paris, éditions Thierry Magnier, coll. « Petite Poche », 2012
+Recto verso, photographies de Teobaldi, éd. Thierry Magnier, coll. « Photoroman », 2012
+Les sorciers meurent aussi, éd. Livres du Monde, 2013, autour de l’œuvre et des voyages de Nicolas Bouvier.
+Des fourmis dans les jambes : Petite biographie de Nicolas Bouvier  (ill. Géraldine Alibeu), Genève, La Joie de lire, 2015, 44 p. (ISBN 978-2-88908-275-9)
+Amir et Marlène : Coup de foudre en 6e  (ill. Gaël Henry), Paris, Sarbacane, coll. « Pepix », 2018, 237 p. (ISBN 978-2-37731-072-2)</t>
         </is>
       </c>
     </row>
